--- a/data/BD2_teq.xlsx
+++ b/data/BD2_teq.xlsx
@@ -22,13 +22,13 @@
     <t>T-vig</t>
   </si>
   <si>
-    <t>R$ 4,05</t>
+    <t>R$ 3,70</t>
   </si>
   <si>
     <t>T-eq</t>
   </si>
   <si>
-    <t>R$ 3,41</t>
+    <t>R$ 4,17</t>
   </si>
 </sst>
 </file>

--- a/data/BD2_teq.xlsx
+++ b/data/BD2_teq.xlsx
@@ -22,13 +22,13 @@
     <t>T-vig</t>
   </si>
   <si>
-    <t>R$ 3,70</t>
+    <t>R$ 4,05</t>
   </si>
   <si>
     <t>T-eq</t>
   </si>
   <si>
-    <t>R$ 4,17</t>
+    <t>R$ 4,30</t>
   </si>
 </sst>
 </file>
